--- a/livedata.xlsx
+++ b/livedata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajid.DESKTOP-5LISAEP\OneDrive\Desktop\a2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FC62BF9-5AAE-4A67-8827-5F36F62769F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64240DA6-1D36-41F4-90E4-00FE3A601989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{058D3E5C-831A-4C5B-A8D7-136C208A779A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>dd</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>ff</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6975CA7F-12A3-44B7-AC7D-31DDDEECA4BE}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -472,6 +478,22 @@
         <v>45</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/livedata.xlsx
+++ b/livedata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajid.DESKTOP-5LISAEP\OneDrive\Desktop\a2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajid.DESKTOP-5LISAEP\OneDrive\Desktop\a2\githubdata\sajid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64240DA6-1D36-41F4-90E4-00FE3A601989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C7F78C-01DB-4619-A7A1-3BE262F3E431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{058D3E5C-831A-4C5B-A8D7-136C208A779A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>ff</t>
+  </si>
+  <si>
+    <t>kk</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6975CA7F-12A3-44B7-AC7D-31DDDEECA4BE}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -494,6 +497,14 @@
         <v>100</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/livedata.xlsx
+++ b/livedata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajid.DESKTOP-5LISAEP\OneDrive\Desktop\a2\githubdata\sajid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sajid\DATASCIENCE\livedata\sajid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C7F78C-01DB-4619-A7A1-3BE262F3E431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57B7AD0-BC67-40DD-A23B-C55FD2C4844D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{058D3E5C-831A-4C5B-A8D7-136C208A779A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>kk</t>
+  </si>
+  <si>
+    <t>gg</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6975CA7F-12A3-44B7-AC7D-31DDDEECA4BE}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -505,6 +508,14 @@
         <v>33</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/livedata.xlsx
+++ b/livedata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sajid\DATASCIENCE\livedata\sajid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57B7AD0-BC67-40DD-A23B-C55FD2C4844D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7346BA-97F8-418C-BA6A-28F078061536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{058D3E5C-831A-4C5B-A8D7-136C208A779A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>gg</t>
+  </si>
+  <si>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6975CA7F-12A3-44B7-AC7D-31DDDEECA4BE}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -516,6 +519,14 @@
         <v>333</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/livedata.xlsx
+++ b/livedata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sajid\DATASCIENCE\livedata\sajid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajid.DESKTOP-5LISAEP\OneDrive\Desktop\gm\sajid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7346BA-97F8-418C-BA6A-28F078061536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53766F3-4A8B-4194-9E17-5419064607CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{058D3E5C-831A-4C5B-A8D7-136C208A779A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>xyz</t>
+  </si>
+  <si>
+    <t>sam</t>
   </si>
 </sst>
 </file>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6975CA7F-12A3-44B7-AC7D-31DDDEECA4BE}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -527,6 +530,14 @@
         <v>33</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/livedata.xlsx
+++ b/livedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajid.DESKTOP-5LISAEP\OneDrive\Desktop\gm\sajid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53766F3-4A8B-4194-9E17-5419064607CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA88453B-AFC9-4359-8A70-33BA223335E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{058D3E5C-831A-4C5B-A8D7-136C208A779A}"/>
+    <workbookView xWindow="1620" yWindow="1245" windowWidth="8745" windowHeight="9780" xr2:uid="{058D3E5C-831A-4C5B-A8D7-136C208A779A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>sam</t>
+  </si>
+  <si>
+    <t>raj</t>
+  </si>
+  <si>
+    <t>kumar</t>
   </si>
 </sst>
 </file>
@@ -442,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6975CA7F-12A3-44B7-AC7D-31DDDEECA4BE}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -538,6 +544,22 @@
         <v>500</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/livedata.xlsx
+++ b/livedata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajid.DESKTOP-5LISAEP\OneDrive\Desktop\gm\sajid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sajid.DESKTOP-5LISAEP\OneDrive\Desktop\aaa\sajid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA88453B-AFC9-4359-8A70-33BA223335E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D0522E-4A5B-4941-A6DD-C6851E93FF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1245" windowWidth="8745" windowHeight="9780" xr2:uid="{058D3E5C-831A-4C5B-A8D7-136C208A779A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{058D3E5C-831A-4C5B-A8D7-136C208A779A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6975CA7F-12A3-44B7-AC7D-31DDDEECA4BE}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -560,6 +560,14 @@
         <v>334</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
